--- a/tests/unit/_Fixtures/Reader/Factory/XlsxReaderFactory/dummyFile.xlsx
+++ b/tests/unit/_Fixtures/Reader/Factory/XlsxReaderFactory/dummyFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\github\fastbolt\entity-importer\tests\unit\_Fixtures\Reader\Factory\XlsxReaderFactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53847599-32A6-437E-BFC6-65D70A7DE11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25555DF-3408-499E-9119-ECC6D5AC4A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{197208CF-9D6F-4246-AF52-527737E846D4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{197208CF-9D6F-4246-AF52-527737E846D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>foo</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>baz</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113FED9-47C3-4943-A7B1-40A889183FFD}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +432,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
